--- a/渲染相关/URP.xlsx
+++ b/渲染相关/URP.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="源码学习" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>URP的着色器是通过HLSL或者ShaderGraph来实现的。之前的shader都是基于CG，所以旧项目要做无缝的升级基本是不可能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +90,14 @@
   </si>
   <si>
     <t>材质不能在运行中被代码修改MaterialPropertyBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemInfo.hasHiddenSurfaceRemovalOnGpu, GPU是否支持删除隐藏的表面，某些GPU支持在渲染不透明物体时删除隐藏的表面，对于他们就不需要在CPU中来对不透明的物体做前后的排序了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SurfaceRemoval：hiddenSurfaceRemoval(隐藏表面消除)：是指消除实体物体被其他物体遮挡的那部分，实现隐藏表面消除的最简单的办法就是使用深度缓冲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -645,4 +654,34 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>